--- a/検討メモ.xlsx
+++ b/検討メモ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="20415" windowHeight="1275"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="13980" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>csb_record</t>
     <phoneticPr fontId="1"/>
@@ -113,9 +113,6 @@
       <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://qiita.com/kenichi_nakamura/items/bc60d4702b5f88d59cfb</t>
   </si>
   <si>
     <t>http://dev.classmethod.jp/cloud/aws/amazon-dynamodb-comparison-with-rds/</t>
@@ -203,6 +200,45 @@
   </si>
   <si>
     <t>last_take_record_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csb_scramble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクランブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツイート時刻</t>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scramble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://qiita.com/kenichi_nakamura/items/bc60d4702b5f88d59cfb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -210,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +257,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -244,12 +289,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,8 +307,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,29 +632,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -627,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -722,7 +774,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -748,38 +800,72 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
